--- a/data/financial_statements/sofp/TT.xlsx
+++ b/data/financial_statements/sofp/TT.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1080000000</v>
+        <v>1080200000</v>
       </c>
       <c r="C2">
-        <v>1090000000</v>
+        <v>1090200000</v>
       </c>
       <c r="D2">
-        <v>1348000000</v>
+        <v>1348400000</v>
       </c>
       <c r="E2">
-        <v>2159000000</v>
+        <v>2159200000</v>
       </c>
       <c r="F2">
-        <v>2739000000</v>
+        <v>2738800000</v>
       </c>
       <c r="G2">
         <v>2912400000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>3061000000</v>
+        <v>2867400000</v>
       </c>
       <c r="C3">
-        <v>2943000000</v>
+        <v>2758200000</v>
       </c>
       <c r="D3">
-        <v>2600000000</v>
+        <v>2429800000</v>
       </c>
       <c r="E3">
-        <v>2594000000</v>
+        <v>2429400000</v>
       </c>
       <c r="F3">
-        <v>2432000000</v>
+        <v>2432300000</v>
       </c>
       <c r="G3">
         <v>2532100000</v>
@@ -855,23 +966,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1949000000</v>
+        <v>1949200000</v>
       </c>
       <c r="C4">
-        <v>1887000000</v>
+        <v>1886900000</v>
       </c>
       <c r="D4">
-        <v>1872000000</v>
+        <v>1872300000</v>
       </c>
       <c r="E4">
-        <v>1531000000</v>
+        <v>1530800000</v>
       </c>
       <c r="F4">
-        <v>1483000000</v>
+        <v>1482800000</v>
       </c>
       <c r="G4">
         <v>1386300000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>209000000</v>
+        <v>402300000</v>
       </c>
       <c r="C5">
-        <v>205000000</v>
+        <v>389900000</v>
       </c>
       <c r="D5">
-        <v>210000000</v>
+        <v>380000000</v>
       </c>
       <c r="E5">
-        <v>187000000</v>
+        <v>351500000</v>
       </c>
       <c r="F5">
-        <v>338000000</v>
+        <v>337500000</v>
       </c>
       <c r="G5">
         <v>294300000</v>
@@ -1099,23 +1210,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>6299000000</v>
+        <v>6299100000</v>
       </c>
       <c r="C6">
-        <v>6125000000</v>
+        <v>6125200000</v>
       </c>
       <c r="D6">
-        <v>6031000000</v>
+        <v>6030500000</v>
       </c>
       <c r="E6">
-        <v>6471000000</v>
+        <v>6470900000</v>
       </c>
       <c r="F6">
-        <v>6991000000</v>
+        <v>6991400000</v>
       </c>
       <c r="G6">
         <v>7125100000</v>
@@ -1221,23 +1332,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1432000000</v>
+        <v>1432100000</v>
       </c>
       <c r="C7">
-        <v>1426000000</v>
+        <v>1425900000</v>
       </c>
       <c r="D7">
-        <v>1422000000</v>
+        <v>1422200000</v>
       </c>
       <c r="E7">
-        <v>1836000000</v>
+        <v>1398800000</v>
       </c>
       <c r="F7">
-        <v>1337000000</v>
+        <v>1336700000</v>
       </c>
       <c r="G7">
         <v>1324900000</v>
@@ -1343,23 +1454,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>8611000000</v>
+        <v>8611400000</v>
       </c>
       <c r="C8">
-        <v>8739000000</v>
+        <v>8739100000</v>
       </c>
       <c r="D8">
-        <v>8768000000</v>
+        <v>8767700000</v>
       </c>
       <c r="E8">
-        <v>8810000000</v>
+        <v>8810400000</v>
       </c>
       <c r="F8">
-        <v>8509000000</v>
+        <v>8508500000</v>
       </c>
       <c r="G8">
         <v>8561500000</v>
@@ -1465,23 +1576,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>1204000000</v>
+        <v>1397200000</v>
       </c>
       <c r="C9">
-        <v>1206000000</v>
+        <v>1390600000</v>
       </c>
       <c r="D9">
-        <v>1185000000</v>
+        <v>1416500000</v>
       </c>
       <c r="E9">
-        <v>724000000</v>
+        <v>1379700000</v>
       </c>
       <c r="F9">
-        <v>1366000000</v>
+        <v>1365600000</v>
       </c>
       <c r="G9">
         <v>1357900000</v>
@@ -1587,8 +1698,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>11440700000</v>
@@ -1709,23 +1820,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>17740000000</v>
+        <v>17739800000</v>
       </c>
       <c r="C11">
-        <v>17681000000</v>
+        <v>17680800000</v>
       </c>
       <c r="D11">
-        <v>17637000000</v>
+        <v>17636900000</v>
       </c>
       <c r="E11">
-        <v>18060000000</v>
+        <v>18059800000</v>
       </c>
       <c r="F11">
-        <v>18202000000</v>
+        <v>18202200000</v>
       </c>
       <c r="G11">
         <v>18369400000</v>
@@ -1831,23 +1942,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2061000000</v>
+        <v>2061300000</v>
       </c>
       <c r="C12">
-        <v>2000000000</v>
+        <v>2000200000</v>
       </c>
       <c r="D12">
-        <v>1932000000</v>
+        <v>1931600000</v>
       </c>
       <c r="E12">
-        <v>1787000000</v>
+        <v>1787300000</v>
       </c>
       <c r="F12">
-        <v>1758000000</v>
+        <v>1757800000</v>
       </c>
       <c r="G12">
         <v>1833200000</v>
@@ -1953,8 +2064,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2434300000</v>
@@ -2075,23 +2186,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>1050000000</v>
+        <v>1049900000</v>
       </c>
       <c r="C14">
-        <v>1050000000</v>
+        <v>1049800000</v>
       </c>
       <c r="D14">
-        <v>350000000</v>
+        <v>350400000</v>
       </c>
       <c r="E14">
-        <v>498000000</v>
+        <v>350400000</v>
       </c>
       <c r="F14">
-        <v>350000000</v>
+        <v>350400000</v>
       </c>
       <c r="G14">
         <v>475400000</v>
@@ -2197,8 +2308,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AH15">
         <v>66300000</v>
@@ -2211,8 +2322,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2434000000</v>
@@ -2252,23 +2363,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>5546000000</v>
+        <v>5545500000</v>
       </c>
       <c r="C17">
-        <v>5630000000</v>
+        <v>5630300000</v>
       </c>
       <c r="D17">
-        <v>4594000000</v>
+        <v>4594400000</v>
       </c>
       <c r="E17">
-        <v>4752000000</v>
+        <v>4752400000</v>
       </c>
       <c r="F17">
-        <v>4314000000</v>
+        <v>4313500000</v>
       </c>
       <c r="G17">
         <v>4512900000</v>
@@ -2374,23 +2485,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>3788000000</v>
+        <v>3787500000</v>
       </c>
       <c r="C18">
-        <v>3787000000</v>
+        <v>3786700000</v>
       </c>
       <c r="D18">
-        <v>4493000000</v>
+        <v>4492600000</v>
       </c>
       <c r="E18">
-        <v>4788000000</v>
+        <v>4491700000</v>
       </c>
       <c r="F18">
-        <v>4491000000</v>
+        <v>4490700000</v>
       </c>
       <c r="G18">
         <v>4489800000</v>
@@ -2496,8 +2607,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>920000000</v>
@@ -2513,8 +2624,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>730900000</v>
@@ -2635,23 +2746,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>639000000</v>
+        <v>639100000</v>
       </c>
       <c r="C21">
-        <v>617000000</v>
+        <v>616500000</v>
       </c>
       <c r="D21">
-        <v>587000000</v>
+        <v>586700000</v>
       </c>
       <c r="E21">
-        <v>582000000</v>
+        <v>581500000</v>
       </c>
       <c r="F21">
-        <v>599000000</v>
+        <v>598900000</v>
       </c>
       <c r="G21">
         <v>594100000</v>
@@ -2757,23 +2868,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>980000000</v>
+        <v>1168400000</v>
       </c>
       <c r="C22">
-        <v>1020000000</v>
+        <v>1150800000</v>
       </c>
       <c r="D22">
-        <v>1492000000</v>
+        <v>1165800000</v>
       </c>
       <c r="E22">
-        <v>1219000000</v>
+        <v>1150200000</v>
       </c>
       <c r="F22">
-        <v>2311000000</v>
+        <v>1334300000</v>
       </c>
       <c r="G22">
         <v>1295300000</v>
@@ -2879,8 +2990,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>6325900000</v>
@@ -3001,23 +3112,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>11871000000</v>
+        <v>11871400000</v>
       </c>
       <c r="C24">
-        <v>11942000000</v>
+        <v>11941500000</v>
       </c>
       <c r="D24">
-        <v>11620000000</v>
+        <v>11620400000</v>
       </c>
       <c r="E24">
-        <v>11787000000</v>
+        <v>11786700000</v>
       </c>
       <c r="F24">
-        <v>11715000000</v>
+        <v>11714500000</v>
       </c>
       <c r="G24">
         <v>11896700000</v>
@@ -3123,8 +3234,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3227,20 +3338,20 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>255000000</v>
+        <v>254800000</v>
       </c>
       <c r="C26">
-        <v>256000000</v>
+        <v>256200000</v>
       </c>
       <c r="D26">
-        <v>258000000</v>
+        <v>258300000</v>
       </c>
       <c r="E26">
-        <v>260000000</v>
+        <v>259700000</v>
       </c>
       <c r="F26">
         <v>262000000</v>
@@ -3349,23 +3460,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>8320000000</v>
+        <v>8320400000</v>
       </c>
       <c r="C27">
-        <v>8004000000</v>
+        <v>8003700000</v>
       </c>
       <c r="D27">
-        <v>8099000000</v>
+        <v>8098700000</v>
       </c>
       <c r="E27">
-        <v>8353000000</v>
+        <v>8353200000</v>
       </c>
       <c r="F27">
-        <v>8627000000</v>
+        <v>8626500000</v>
       </c>
       <c r="G27">
         <v>8566200000</v>
@@ -3471,8 +3582,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1719400000</v>
@@ -3575,23 +3686,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>5858000000</v>
+        <v>5868400000</v>
       </c>
       <c r="C29">
-        <v>5724000000</v>
+        <v>5739300000</v>
       </c>
       <c r="D29">
-        <v>5999000000</v>
+        <v>6016500000</v>
       </c>
       <c r="E29">
-        <v>6256000000</v>
+        <v>6273101000</v>
       </c>
       <c r="F29">
-        <v>6475000000</v>
+        <v>6487700000</v>
       </c>
       <c r="G29">
         <v>6472700000</v>
@@ -3697,23 +3808,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>5858000000</v>
+        <v>5868400000</v>
       </c>
       <c r="C30">
-        <v>5724000000</v>
+        <v>5739300000</v>
       </c>
       <c r="D30">
-        <v>5999000000</v>
+        <v>6016500000</v>
       </c>
       <c r="E30">
-        <v>6256000000</v>
+        <v>6273100000</v>
       </c>
       <c r="F30">
-        <v>6475000000</v>
+        <v>6487700000</v>
       </c>
       <c r="G30">
         <v>6472700000</v>
@@ -3819,8 +3930,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>17739800000</v>
@@ -3941,8 +4052,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>230300000</v>
@@ -4063,8 +4174,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-2743000000</v>
@@ -4185,23 +4296,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>3758000000</v>
+        <v>3757200000</v>
       </c>
       <c r="C34">
-        <v>3747000000</v>
+        <v>3746300000</v>
       </c>
       <c r="D34">
-        <v>3495000000</v>
+        <v>3494600000</v>
       </c>
       <c r="E34">
-        <v>3127000000</v>
+        <v>2682900000</v>
       </c>
       <c r="F34">
-        <v>2102000000</v>
+        <v>2102300000</v>
       </c>
       <c r="G34">
         <v>2052800000</v>
@@ -4307,23 +4418,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>4838000000</v>
+        <v>4837400000</v>
       </c>
       <c r="C35">
-        <v>4837000000</v>
+        <v>4836500000</v>
       </c>
       <c r="D35">
         <v>4843000000</v>
       </c>
       <c r="E35">
-        <v>5286000000</v>
+        <v>4842100000</v>
       </c>
       <c r="F35">
-        <v>4841000000</v>
+        <v>4841100000</v>
       </c>
       <c r="G35">
         <v>4965200000</v>
